--- a/doc/Opis.xlsx
+++ b/doc/Opis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="185">
   <si>
     <t>Stacja_Lasera.Globalne.IDStanowiska</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Stacja_Lasera.WypalanieID.Status.rez_D</t>
   </si>
   <si>
-    <t>Stacja_Lasera.WypalanieID.Status.TestZalaczony</t>
-  </si>
-  <si>
     <t>Stacja_Lasera.WypalanieID.Status.rez1</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Stacja_Lasera.WeryfikacjaID.Status.rez_D</t>
   </si>
   <si>
-    <t>Stacja_Lasera.WeryfikacjaID.Status.TestZalaczony</t>
-  </si>
-  <si>
     <t>Stacja_Lasera.WeryfikacjaID.Status.rez1</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Stacja_Lasera.WeryfikacjaID.Status.rez_I</t>
   </si>
   <si>
-    <t>12705 - Stacja 1; 12706 - Stacja 2; Stacja 3 jeszcze nie wiem ale też coś podobnego</t>
-  </si>
-  <si>
     <t>Kodowanie wtyczki gniazda</t>
   </si>
   <si>
@@ -881,9 +872,6 @@
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.rez_D</t>
   </si>
   <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.TestZalaczony</t>
-  </si>
-  <si>
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.rez1</t>
   </si>
   <si>
@@ -965,9 +953,6 @@
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.rez_D</t>
   </si>
   <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.TestZalaczony</t>
-  </si>
-  <si>
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.rez1</t>
   </si>
   <si>
@@ -1196,6 +1181,24 @@
   </si>
   <si>
     <t>STRING[30]</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WypalanieID.Status.OperacjaZalaczona</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WeryfikacjaID.Status.OperacjaZalaczona</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.OperacjaZalaczona</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.OperacjaZalaczona</t>
+  </si>
+  <si>
+    <t>1-Zalaczony, 0-Nie bierze udziału</t>
+  </si>
+  <si>
+    <t>12705 - Stacja 1; 12706 - Stacja 2; 12707 - Stacja 3</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1652,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,31 +1666,31 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1756,7 +1759,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,7 +1769,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,7 +1779,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,12 +1909,12 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1923,15 +1926,15 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1943,15 +1946,15 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -1963,10 +1966,10 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,12 +2068,12 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -2085,7 +2088,7 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,7 +2161,7 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,7 +2201,7 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2271,15 +2274,15 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -2377,7 +2380,7 @@
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -2389,12 +2392,12 @@
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -2408,7 +2411,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -2520,7 +2523,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2551,10 +2554,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -2605,12 +2608,12 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2879,7 +2882,7 @@
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -2891,15 +2894,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2969,106 +2972,106 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" t="s">
         <v>118</v>
-      </c>
-      <c r="B98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
@@ -3108,12 +3111,12 @@
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -3155,7 +3158,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
@@ -3183,7 +3186,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
@@ -3211,7 +3214,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -3323,7 +3326,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -3368,7 +3371,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -3382,103 +3385,103 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E126" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C131" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D131" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -3492,7 +3495,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
         <v>13</v>
@@ -3518,12 +3521,12 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
         <v>13</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
@@ -3551,7 +3554,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -3565,7 +3568,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
         <v>13</v>
@@ -3607,7 +3610,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
@@ -3621,7 +3624,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -3649,7 +3652,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
         <v>13</v>
@@ -3663,7 +3666,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -3677,7 +3680,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
         <v>13</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
         <v>31</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>

--- a/doc/Opis.xlsx
+++ b/doc/Opis.xlsx
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2138,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>

--- a/doc/Opis.xlsx
+++ b/doc/Opis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="184">
   <si>
     <t>Stacja_Lasera.Globalne.IDStanowiska</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Stacja_Lasera.Globalne.IDDetalu</t>
   </si>
   <si>
-    <t>DINT</t>
-  </si>
-  <si>
     <t>L#0</t>
   </si>
   <si>
@@ -45,15 +42,6 @@
     <t>Stacja_Lasera.Globalne.rez_I2</t>
   </si>
   <si>
-    <t>Stacja_Lasera.Globalne.rez_D3</t>
-  </si>
-  <si>
-    <t>Stacja_Lasera.Globalne.rez_D4</t>
-  </si>
-  <si>
-    <t>Stacja_Lasera.Globalne.Status.rez_D</t>
-  </si>
-  <si>
     <t>Stacja_Lasera.Globalne.Status.PLC_Traceability_ON</t>
   </si>
   <si>
@@ -138,12 +126,6 @@
     <t>Stacja_Lasera.WypalanieID.WypalaneID</t>
   </si>
   <si>
-    <t>Stacja_Lasera.WypalanieID.rez_D</t>
-  </si>
-  <si>
-    <t>Stacja_Lasera.WypalanieID.Status.rez_D</t>
-  </si>
-  <si>
     <t>Stacja_Lasera.WypalanieID.Status.rez1</t>
   </si>
   <si>
@@ -204,12 +186,6 @@
     <t>Stacja_Lasera.WeryfikacjaID.OdczytaneID</t>
   </si>
   <si>
-    <t>Stacja_Lasera.WeryfikacjaID.rez_D</t>
-  </si>
-  <si>
-    <t>Stacja_Lasera.WeryfikacjaID.Status.rez_D</t>
-  </si>
-  <si>
     <t>Stacja_Lasera.WeryfikacjaID.Status.rez1</t>
   </si>
   <si>
@@ -830,12 +806,6 @@
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.DummyiKalibrGodzZmaiana3</t>
   </si>
   <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.rez_D1</t>
-  </si>
-  <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.rez_D2</t>
-  </si>
-  <si>
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].WynikPrzeplywu</t>
   </si>
   <si>
@@ -866,12 +836,6 @@
     <t>[s]</t>
   </si>
   <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].rez_D</t>
-  </si>
-  <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.rez_D</t>
-  </si>
-  <si>
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.rez1</t>
   </si>
   <si>
@@ -947,12 +911,6 @@
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].CzasTrwania</t>
   </si>
   <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].rez_D</t>
-  </si>
-  <si>
-    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.rez_D</t>
-  </si>
-  <si>
     <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.rez1</t>
   </si>
   <si>
@@ -1199,6 +1157,45 @@
   </si>
   <si>
     <t>12705 - Stacja 1; 12706 - Stacja 2; 12707 - Stacja 3</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.Globalne.rez_R3</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.Globalne.rez_R4</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.Globalne.Status.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WypalanieID.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WypalanieID.Status.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WeryfikacjaID.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_Lasera.WeryfikacjaID.Status.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.rez_R1</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.rez_R2</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[0].Status.rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].rez_R</t>
+  </si>
+  <si>
+    <t>Stacja_12705_LEWA.TestowaniePrzeplywu.Test[1].Status.rez_R</t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,31 +1663,31 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,17 +1746,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1766,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,12 +1776,12 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1798,7 +1795,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1812,361 +1809,361 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2178,15 +2175,15 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2198,332 +2195,332 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2535,12 +2532,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2554,304 +2551,304 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2863,12 +2860,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2882,7 +2879,7 @@
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -2894,15 +2891,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -2916,7 +2913,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2944,417 +2941,417 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E98" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F103" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
         <v>5</v>
       </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -3366,12 +3363,12 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -3385,386 +3382,386 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E126" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E127" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E128" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C130" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C131" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D131" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E131" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" t="s">
         <v>5</v>
       </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -3776,12 +3773,12 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
